--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn_new\LearnNew\Self_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\LearnNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC0F6126-D1BC-4B09-BECA-01C7A3896BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABAB150-92C9-4F6C-A3DB-8FADEE9FF638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8CDA74BD-3C29-4744-9405-A625A2E98285}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{8CDA74BD-3C29-4744-9405-A625A2E98285}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="148">
   <si>
     <t>Topics</t>
   </si>
@@ -1031,13 +1032,88 @@
       </rPr>
       <t>gdb</t>
     </r>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>carmaker</t>
+  </si>
+  <si>
+    <t>carla</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>cmake</t>
+  </si>
+  <si>
+    <t>bazel</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>unit testing-gtest</t>
+  </si>
+  <si>
+    <t>QNX</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>version control-Git</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>pycharm</t>
+  </si>
+  <si>
+    <t>languages</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>process-technical</t>
+  </si>
+  <si>
+    <t>Agile</t>
+  </si>
+  <si>
+    <t>linux/unix</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>RTE port connections</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,6 +1162,14 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1133,7 +1217,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,9 +1532,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD31C5-05A2-4F01-A355-84B278C634E0}">
-  <dimension ref="A2:M243"/>
+  <dimension ref="A2:G243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18:G20"/>
     </sheetView>
   </sheetViews>
@@ -1464,12 +1548,12 @@
     <col min="16" max="16" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>45973</v>
       </c>
@@ -1477,7 +1561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="31.2">
+    <row r="4" spans="1:7" ht="31.2">
       <c r="A4" s="2">
         <v>45974</v>
       </c>
@@ -1491,7 +1575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>45975</v>
       </c>
@@ -1502,7 +1586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>45976</v>
       </c>
@@ -1513,7 +1597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>45977</v>
       </c>
@@ -1524,7 +1608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18">
+    <row r="8" spans="1:7" ht="18">
       <c r="A8" s="2">
         <v>45978</v>
       </c>
@@ -1538,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45979</v>
       </c>
@@ -1547,7 +1631,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45980</v>
       </c>
@@ -1558,7 +1642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45981</v>
       </c>
@@ -1570,7 +1654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>45982</v>
       </c>
@@ -1582,7 +1666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>45983</v>
       </c>
@@ -1594,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>45984</v>
       </c>
@@ -1606,7 +1690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>45985</v>
       </c>
@@ -1615,11 +1699,8 @@
       </c>
       <c r="D15" s="1"/>
       <c r="G15" s="7"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:13" ht="18">
+    </row>
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" s="2">
         <v>45986</v>
       </c>
@@ -1630,11 +1711,8 @@
       <c r="G16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>45987</v>
       </c>
@@ -1643,11 +1721,8 @@
       </c>
       <c r="D17" s="1"/>
       <c r="G17" s="7"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>45988</v>
       </c>
@@ -1658,11 +1733,8 @@
       <c r="G18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>45989</v>
       </c>
@@ -1670,11 +1742,8 @@
       <c r="G19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>45990</v>
       </c>
@@ -1682,67 +1751,61 @@
       <c r="G20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>45991</v>
       </c>
       <c r="D21" s="1"/>
       <c r="G21" s="7"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" ht="31.2">
+    </row>
+    <row r="22" spans="1:7" ht="31.2">
       <c r="D22" s="1"/>
       <c r="G22" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:7">
       <c r="D23" s="1"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:13" ht="18">
+    <row r="24" spans="1:7" ht="18">
       <c r="D24" s="1"/>
       <c r="G24" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:7">
       <c r="G25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:7">
       <c r="G26" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:7">
       <c r="G27" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:7">
       <c r="G28" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:7">
       <c r="G29" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:7">
       <c r="G30" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:7">
       <c r="G32" s="7"/>
     </row>
     <row r="34" spans="7:7">
@@ -2455,4 +2518,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57CA8E-48CE-4BD3-82CF-6BB3BC54001E}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="9" customFormat="1">
+      <c r="A1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>